--- a/pred_ohlcv/54_21/2020-01-21 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 ETC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>25580.32409658124</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>24119.16849658124</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>27618.52019658124</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>36937.29879658124</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>49003.46169369224</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>50435.58440651275</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>49146.38530651275</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>46870.50690651275</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>41625.88790651275</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>39752.79930651274</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>42378.02180651275</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>42606.97230651275</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -964,7 +964,7 @@
         <v>42985.54560651275</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>37574.68359247709</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>25896.06680815977</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>25896.06680815977</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>23302.84270815977</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>22448.89330815977</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>20243.57850815977</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>23468.27890815977</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>20892.10171311834</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>20875.74651311833</v>
       </c>
       <c r="H839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>20895.74651311833</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>20915.31471311834</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>20915.31471311834</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>20456.84011311833</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>20516.94011311833</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>20247.80101311833</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>20247.80101311833</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>19903.66771311833</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>21235.16871311833</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>21234.72221311833</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>21096.94541311833</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>21354.40981311833</v>
       </c>
       <c r="H851">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>20247.65731311834</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>22318.09111311833</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>22420.03101311834</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>22420.03101311834</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>22829.96631311834</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>22939.53941311834</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>23159.12431311834</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>22669.47601311834</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>23080.47601311834</v>
       </c>
       <c r="H860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>23000.09601311834</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>22320.42911311834</v>
       </c>
       <c r="H862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>22326.38911311834</v>
       </c>
       <c r="H863">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>22088.33287680311</v>
       </c>
       <c r="H864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>22289.07847680311</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>22854.99750422035</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>23327.94110422035</v>
       </c>
       <c r="H872">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>23191.14110422035</v>
       </c>
       <c r="H873">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>23191.14110422035</v>
       </c>
       <c r="H874">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>23136.10220422035</v>
       </c>
       <c r="H875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>23136.10220422035</v>
       </c>
       <c r="H876">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>23560.88431434288</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>23253.01401434288</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>23868.11401434288</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>24549.81401434288</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>24549.81401434288</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>24611.35191434288</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>24372.95981434288</v>
       </c>
       <c r="H889">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>24373.05441434288</v>
       </c>
       <c r="H890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>23712.80171434288</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>23712.80171434288</v>
       </c>
       <c r="H892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>22421.29301434288</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>22365.67281434288</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>22365.67281434288</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>23273.35521434288</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>23480.29621434288</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>23433.28591434288</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>23433.28591434288</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>23385.70941434288</v>
       </c>
       <c r="H900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>23211.08881434288</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>23884.94691434288</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>23884.94691434288</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>23884.94691434288</v>
       </c>
       <c r="H904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>22989.33571434288</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>22884.94691434288</v>
       </c>
       <c r="H906">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>23011.07691434288</v>
       </c>
       <c r="H907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>23024.52921434289</v>
       </c>
       <c r="H908">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>23933.64121434289</v>
       </c>
       <c r="H909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>23368.93101434288</v>
       </c>
       <c r="H910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>23791.99181434288</v>
       </c>
       <c r="H911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>23791.99181434288</v>
       </c>
       <c r="H912">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>23791.99181434288</v>
       </c>
       <c r="H913">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>24049.24911434289</v>
       </c>
       <c r="H914">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>23658.78581434289</v>
       </c>
       <c r="H915">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>23658.78581434289</v>
       </c>
       <c r="H916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>23662.18581434289</v>
       </c>
       <c r="H917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>23557.68581434289</v>
       </c>
       <c r="H918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>23569.98291434289</v>
       </c>
       <c r="H919">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>23569.98291434289</v>
       </c>
       <c r="H920">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>23240.21071434289</v>
       </c>
       <c r="H921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>22472.52471434289</v>
       </c>
       <c r="H922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>22496.15661434289</v>
       </c>
       <c r="H923">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>22604.42971434288</v>
       </c>
       <c r="H924">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>22798.42971434288</v>
       </c>
       <c r="H925">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>22436.97681434288</v>
       </c>
       <c r="H926">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>22398.42461434289</v>
       </c>
       <c r="H927">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>22100.10121434289</v>
       </c>
       <c r="H928">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>22064.11821434289</v>
       </c>
       <c r="H929">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>22064.11821434289</v>
       </c>
       <c r="H930">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>21765.20491434288</v>
       </c>
       <c r="H931">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>23046.20511434288</v>
       </c>
       <c r="H932">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>20618.40271434288</v>
       </c>
       <c r="H933">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>20879.82321434288</v>
       </c>
       <c r="H934">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>21023.08291434288</v>
       </c>
       <c r="H935">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>21006.83751434288</v>
       </c>
       <c r="H936">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>21622.29621434288</v>
       </c>
       <c r="H937">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>21622.29621434288</v>
       </c>
       <c r="H938">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>21929.48511434288</v>
       </c>
       <c r="H939">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>21014.93091434288</v>
       </c>
       <c r="H940">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>23975.89731434288</v>
       </c>
       <c r="H941">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>23462.04081434288</v>
       </c>
       <c r="H942">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>22833.66671434288</v>
       </c>
       <c r="H943">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>23412.44041434288</v>
       </c>
       <c r="H944">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>23836.49501434288</v>
       </c>
       <c r="H945">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>25104.25461434288</v>
       </c>
       <c r="H946">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>25632.21711434289</v>
       </c>
       <c r="H947">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>25632.21711434289</v>
       </c>
       <c r="H948">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>25633.30391434289</v>
       </c>
       <c r="H949">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>24639.82561434289</v>
       </c>
       <c r="H950">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>23803.20101434289</v>
       </c>
       <c r="H951">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>23803.20101434289</v>
       </c>
       <c r="H952">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>24164.96331434289</v>
       </c>
       <c r="H953">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>24396.54411434289</v>
       </c>
       <c r="H954">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>24266.65151434289</v>
       </c>
       <c r="H955">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>24576.85461434289</v>
       </c>
       <c r="H956">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>24835.92951434289</v>
       </c>
       <c r="H957">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>24559.39471434288</v>
       </c>
       <c r="H958">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>24571.89451434289</v>
       </c>
       <c r="H959">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>24449.04621434288</v>
       </c>
       <c r="H960">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>24429.43881434288</v>
       </c>
       <c r="H961">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>23770.45201434289</v>
       </c>
       <c r="H962">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>23770.45201434289</v>
       </c>
       <c r="H963">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>19236.94767809693</v>
       </c>
       <c r="H968">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>25794.92297809693</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>26078.43377809693</v>
       </c>
       <c r="H982">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>27149.58827809693</v>
       </c>
       <c r="H983">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>27730.26157809693</v>
       </c>
       <c r="H984">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>28872.73157809693</v>
       </c>
       <c r="H985">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>30665.57397809693</v>
       </c>
       <c r="H995">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>30398.47617809693</v>
       </c>
       <c r="H996">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>30308.06097809693</v>
       </c>
       <c r="H997">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>30725.30677809693</v>
       </c>
       <c r="H998">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>31257.80737809693</v>
       </c>
       <c r="H999">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>30652.14177809693</v>
       </c>
       <c r="H1000">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>28012.12427809693</v>
       </c>
       <c r="H1001">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>27761.44327809693</v>
       </c>
       <c r="H1002">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>29109.30827809693</v>
       </c>
       <c r="H1003">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>29503.96907809693</v>
       </c>
       <c r="H1004">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>30045.60207809693</v>
       </c>
       <c r="H1005">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>29252.86737809693</v>
       </c>
       <c r="H1008">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>31187.32587809693</v>
       </c>
       <c r="H1019">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>41053.48892858792</v>
       </c>
       <c r="H1052">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>42155.48892858792</v>
       </c>
       <c r="H1053">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>39749.26962858792</v>
       </c>
       <c r="H1054">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>39106.03502858792</v>
       </c>
       <c r="H1055">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>37707.76362858792</v>
       </c>
       <c r="H1056">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>39569.99599585318</v>
       </c>
       <c r="H1057">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>37703.87959585318</v>
       </c>
       <c r="H1058">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>38252.51379585319</v>
       </c>
       <c r="H1059">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>39034.03779585318</v>
       </c>
       <c r="H1060">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>40570.98312858792</v>
       </c>
       <c r="H1061">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>39378.07732858792</v>
       </c>
       <c r="H1062">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>37618.46822858792</v>
       </c>
       <c r="H1063">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>39275.34502858792</v>
       </c>
       <c r="H1064">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>39141.96042858792</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>40076.47377973882</v>
       </c>
       <c r="H1066">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>39976.47377973882</v>
       </c>
       <c r="H1067">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>41434.22187973881</v>
       </c>
       <c r="H1068">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>39833.70047973881</v>
       </c>
       <c r="H1069">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>40115.78867973881</v>
       </c>
       <c r="H1070">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>37539.48007973882</v>
       </c>
       <c r="H1071">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>35174.40657973882</v>
       </c>
       <c r="H1072">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>30785.05747973882</v>
       </c>
       <c r="H1073">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 ETC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>25580.32409658124</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>24119.16849658124</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>27618.52019658124</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>36937.29879658124</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>49003.46169369224</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>50435.58440651275</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>48058.09400651275</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>46870.50690651275</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>41625.88790651275</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>39752.79930651274</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -938,7 +938,7 @@
         <v>41432.39350651275</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>42985.54560651275</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>43180.49726022119</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>45427.1172602212</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>43428.23826022119</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>39809.38872882942</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>38547.67402882942</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>41306.74762882943</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>42303.47512882943</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>42570.18072882943</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>42356.38012882943</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>42754.68782882942</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>44642.13022882942</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>44238.25777714984</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>44575.04247714984</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>44945.27567714984</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>44034.79207714984</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>42768.61187714984</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>40391.38161164122</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>38430.2593924771</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>38581.4455924771</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>38538.77399247709</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>37574.68359247709</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>37574.68359247709</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>37574.68359247709</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>37206.48479247709</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>37865.47769247709</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>37767.66669247709</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>38259.82909247709</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>37463.33219247709</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>37701.64989247709</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>39461.07160896092</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>38450.36240896092</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>38450.36240896092</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>38641.90220896092</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>38286.54609674835</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>37292.36609674835</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>37812.07974939072</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>37162.38214939072</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>37065.57194939072</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>39084.84920386642</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>20243.57850815977</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>23468.27890815977</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>22882.8862508492</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>22167.7242508492</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>21985.2080508492</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>21985.2080508492</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>20845.1436508492</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>19458.3534508492</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>19461.5791508492</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>19721.60415084921</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>21144.51515084921</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>20970.56631311834</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>20892.10171311834</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>20875.74651311833</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>20895.74651311833</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>20915.31471311834</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>20915.31471311834</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>20456.84011311833</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>20516.94011311833</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>20247.80101311833</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>20247.80101311833</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>19903.66771311833</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>21235.16871311833</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>21234.72221311833</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>21096.94541311833</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>21354.40981311833</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>20247.65731311834</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>22318.09111311833</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>22420.03101311834</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>22420.03101311834</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>22829.96631311834</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>22939.53941311834</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>23159.12431311834</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>22669.47601311834</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>23080.47601311834</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>23000.09601311834</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>22320.42911311834</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>22326.38911311834</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>22088.33287680311</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>22289.07847680311</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>22854.99750422035</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>23327.94110422035</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>23191.14110422035</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>23191.14110422035</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>23136.10220422035</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>23136.10220422035</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>23560.88431434288</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>23253.01401434288</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>23868.11401434288</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>24549.81401434288</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>24549.81401434288</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>24611.35191434288</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>24372.95981434288</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>24373.05441434288</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>23712.80171434288</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>23712.80171434288</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>22421.29301434288</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>22365.67281434288</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>22365.67281434288</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>23273.35521434288</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>23480.29621434288</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>23433.28591434288</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>23433.28591434288</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>23385.70941434288</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>23211.08881434288</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>23884.94691434288</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>23884.94691434288</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>23884.94691434288</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>22989.33571434288</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>22884.94691434288</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>23011.07691434288</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>23024.52921434289</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>23933.64121434289</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>23368.93101434288</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>23791.99181434288</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>23791.99181434288</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>23791.99181434288</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>24049.24911434289</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>23658.78581434289</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>23662.18581434289</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>23557.68581434289</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>23569.98291434289</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>23569.98291434289</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>23240.21071434289</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>22472.52471434289</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>22496.15661434289</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>22604.42971434288</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>22798.42971434288</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>22436.97681434288</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>22398.42461434289</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>22100.10121434289</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>22064.11821434289</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>22064.11821434289</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>21765.20491434288</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>23046.20511434288</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>20618.40271434288</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>20879.82321434288</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>21023.08291434288</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>21006.83751434288</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>21622.29621434288</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>21622.29621434288</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>21929.48511434288</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>21014.93091434288</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>23975.89731434288</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>23462.04081434288</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>22833.66671434288</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>23412.44041434288</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>23836.49501434288</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>25104.25461434288</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>25632.21711434289</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>25632.21711434289</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>25633.30391434289</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>24639.82561434289</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>23803.20101434289</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>23803.20101434289</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>24164.96331434289</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>24396.54411434289</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>24266.65151434289</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>24576.85461434289</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>24835.92951434289</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>24559.39471434288</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>24571.89451434289</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>24449.04621434288</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>24429.43881434288</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>23770.45201434289</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>23770.45201434289</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>19236.94767809693</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>25794.92297809693</v>
       </c>
       <c r="H978">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>30308.06097809693</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>30725.30677809693</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>41053.48892858792</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>39749.26962858792</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>39106.03502858792</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>37707.76362858792</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>37703.87959585318</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>38252.51379585319</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>39034.03779585318</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>40570.98312858792</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>39378.07732858792</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>37618.46822858792</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>39275.34502858792</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>39141.96042858792</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>40076.47377973882</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>39976.47377973882</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>41434.22187973881</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>39833.70047973881</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>40115.78867973881</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>37539.48007973882</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>35174.40657973882</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>30785.05747973882</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>33858.17357973881</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>31097.69906533552</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>30416.55136533552</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
